--- a/data-raw/8d_cost_utilisation_intervention.xlsx
+++ b/data-raw/8d_cost_utilisation_intervention.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1CAB7D-9309-5048-A6D9-A39907D91C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278217AE-BD43-B64E-AAC0-4C31DED36C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14900" yWindow="2340" windowWidth="37980" windowHeight="26460" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -288,7 +288,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -307,6 +310,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -341,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -407,22 +422,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -457,14 +462,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -779,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20757A-CBE6-1F41-85A5-572B7D012FB2}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,6 +798,7 @@
     <col min="3" max="3" width="12.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1">
@@ -807,7 +817,7 @@
       <c r="E1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>81</v>
       </c>
     </row>
@@ -827,8 +837,8 @@
       <c r="E2" s="1">
         <v>0.1</v>
       </c>
-      <c r="F2" s="12">
-        <v>200</v>
+      <c r="F2" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52" thickBot="1">
@@ -847,8 +857,8 @@
       <c r="E3" s="2">
         <v>0.2</v>
       </c>
-      <c r="F3" s="13">
-        <v>250</v>
+      <c r="F3" s="14">
+        <v>406.66999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" thickTop="1" thickBot="1">
@@ -867,8 +877,8 @@
       <c r="E4" s="4">
         <v>0.03</v>
       </c>
-      <c r="F4" s="12">
-        <v>300</v>
+      <c r="F4" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86" thickBot="1">
@@ -888,7 +898,7 @@
         <v>0.03</v>
       </c>
       <c r="F5" s="13">
-        <v>120</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="103" thickBot="1">
@@ -907,8 +917,8 @@
       <c r="E6" s="4">
         <v>0.01</v>
       </c>
-      <c r="F6" s="12">
-        <v>5</v>
+      <c r="F6" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="120" thickBot="1">
@@ -927,8 +937,8 @@
       <c r="E7" s="2">
         <v>0.02</v>
       </c>
-      <c r="F7" s="13">
-        <v>800</v>
+      <c r="F7" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="52" thickBot="1">
@@ -947,8 +957,8 @@
       <c r="E8" s="2">
         <v>0.05</v>
       </c>
-      <c r="F8" s="12">
-        <v>600</v>
+      <c r="F8" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="69" thickBot="1">
@@ -967,8 +977,8 @@
       <c r="E9" s="4">
         <v>0.05</v>
       </c>
-      <c r="F9" s="13">
-        <v>500</v>
+      <c r="F9" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="69" thickBot="1">
@@ -987,8 +997,8 @@
       <c r="E10" s="2">
         <v>0.05</v>
       </c>
-      <c r="F10" s="12">
-        <v>400</v>
+      <c r="F10" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="86" thickBot="1">
@@ -1007,8 +1017,8 @@
       <c r="E11" s="4">
         <v>0.03</v>
       </c>
-      <c r="F11" s="13">
-        <v>300</v>
+      <c r="F11" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="86" thickBot="1">
@@ -1027,8 +1037,8 @@
       <c r="E12" s="2">
         <v>0.05</v>
       </c>
-      <c r="F12" s="12">
-        <v>120</v>
+      <c r="F12" s="13">
+        <v>120.05</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="86" thickBot="1">
@@ -1047,8 +1057,8 @@
       <c r="E13" s="4">
         <v>0.03</v>
       </c>
-      <c r="F13" s="13">
-        <v>6</v>
+      <c r="F13" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="36" thickTop="1" thickBot="1">
@@ -1067,8 +1077,8 @@
       <c r="E14" s="1">
         <v>0.1</v>
       </c>
-      <c r="F14" s="12">
-        <v>200</v>
+      <c r="F14" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="35" thickBot="1">
@@ -1087,8 +1097,8 @@
       <c r="E15" s="2">
         <v>0.5</v>
       </c>
-      <c r="F15" s="13">
-        <v>250</v>
+      <c r="F15" s="14">
+        <v>406.66999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="35" thickBot="1">
@@ -1107,8 +1117,8 @@
       <c r="E16" s="4">
         <v>0.03</v>
       </c>
-      <c r="F16" s="12">
-        <v>300</v>
+      <c r="F16" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="103" thickBot="1">
@@ -1128,7 +1138,7 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="13">
-        <v>120</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="103" thickBot="1">
@@ -1147,8 +1157,8 @@
       <c r="E18" s="4">
         <v>0.01</v>
       </c>
-      <c r="F18" s="12">
-        <v>5</v>
+      <c r="F18" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="103" thickBot="1">
@@ -1167,8 +1177,8 @@
       <c r="E19" s="2">
         <v>0.1</v>
       </c>
-      <c r="F19" s="13">
-        <v>800</v>
+      <c r="F19" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="52" thickBot="1">
@@ -1187,8 +1197,8 @@
       <c r="E20" s="2">
         <v>0.15</v>
       </c>
-      <c r="F20" s="12">
-        <v>600</v>
+      <c r="F20" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="69" thickBot="1">
@@ -1207,8 +1217,8 @@
       <c r="E21" s="4">
         <v>0.1</v>
       </c>
-      <c r="F21" s="13">
-        <v>500</v>
+      <c r="F21" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="69" thickBot="1">
@@ -1227,8 +1237,8 @@
       <c r="E22" s="2">
         <v>0.15</v>
       </c>
-      <c r="F22" s="12">
-        <v>400</v>
+      <c r="F22" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="86" thickBot="1">
@@ -1247,8 +1257,8 @@
       <c r="E23" s="4">
         <v>0.15</v>
       </c>
-      <c r="F23" s="13">
-        <v>300</v>
+      <c r="F23" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="86" thickBot="1">
@@ -1267,8 +1277,8 @@
       <c r="E24" s="2">
         <v>0.15</v>
       </c>
-      <c r="F24" s="12">
-        <v>120</v>
+      <c r="F24" s="13">
+        <v>120.05</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="86" thickBot="1">
@@ -1287,8 +1297,8 @@
       <c r="E25" s="4">
         <v>0.03</v>
       </c>
-      <c r="F25" s="13">
-        <v>6</v>
+      <c r="F25" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="36" thickTop="1" thickBot="1">
@@ -1307,8 +1317,8 @@
       <c r="E26" s="1">
         <v>0.1</v>
       </c>
-      <c r="F26" s="12">
-        <v>200</v>
+      <c r="F26" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="35" thickBot="1">
@@ -1327,8 +1337,8 @@
       <c r="E27" s="2">
         <v>0.6</v>
       </c>
-      <c r="F27" s="13">
-        <v>250</v>
+      <c r="F27" s="14">
+        <v>406.66999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="35" thickBot="1">
@@ -1347,8 +1357,8 @@
       <c r="E28" s="4">
         <v>0.03</v>
       </c>
-      <c r="F28" s="12">
-        <v>300</v>
+      <c r="F28" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="103" thickBot="1">
@@ -1368,7 +1378,7 @@
         <v>0.6</v>
       </c>
       <c r="F29" s="13">
-        <v>120</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="103" thickBot="1">
@@ -1387,8 +1397,8 @@
       <c r="E30" s="4">
         <v>0.01</v>
       </c>
-      <c r="F30" s="12">
-        <v>5</v>
+      <c r="F30" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="103" thickBot="1">
@@ -1407,8 +1417,8 @@
       <c r="E31" s="2">
         <v>0.1</v>
       </c>
-      <c r="F31" s="13">
-        <v>800</v>
+      <c r="F31" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="52" thickBot="1">
@@ -1427,8 +1437,8 @@
       <c r="E32" s="2">
         <v>0.2</v>
       </c>
-      <c r="F32" s="12">
-        <v>600</v>
+      <c r="F32" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="69" thickBot="1">
@@ -1447,8 +1457,8 @@
       <c r="E33" s="4">
         <v>0.1</v>
       </c>
-      <c r="F33" s="13">
-        <v>500</v>
+      <c r="F33" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="69" thickBot="1">
@@ -1467,8 +1477,8 @@
       <c r="E34" s="2">
         <v>0.2</v>
       </c>
-      <c r="F34" s="12">
-        <v>400</v>
+      <c r="F34" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="86" thickBot="1">
@@ -1487,8 +1497,8 @@
       <c r="E35" s="4">
         <v>0.2</v>
       </c>
-      <c r="F35" s="13">
-        <v>300</v>
+      <c r="F35" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="86" thickBot="1">
@@ -1507,8 +1517,8 @@
       <c r="E36" s="2">
         <v>0.2</v>
       </c>
-      <c r="F36" s="12">
-        <v>120</v>
+      <c r="F36" s="13">
+        <v>120.05</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="86" thickBot="1">
@@ -1527,8 +1537,8 @@
       <c r="E37" s="4">
         <v>0.03</v>
       </c>
-      <c r="F37" s="13">
-        <v>6</v>
+      <c r="F37" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="19" thickTop="1" thickBot="1">
@@ -1547,8 +1557,8 @@
       <c r="E38" s="1">
         <v>0.1</v>
       </c>
-      <c r="F38" s="12">
-        <v>200</v>
+      <c r="F38" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" thickBot="1">
@@ -1567,8 +1577,8 @@
       <c r="E39" s="2">
         <v>0.6</v>
       </c>
-      <c r="F39" s="13">
-        <v>250</v>
+      <c r="F39" s="14">
+        <v>406.66999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="86" thickBot="1">
@@ -1587,8 +1597,8 @@
       <c r="E40" s="4">
         <v>0.03</v>
       </c>
-      <c r="F40" s="12">
-        <v>300</v>
+      <c r="F40" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="103" thickBot="1">
@@ -1608,7 +1618,7 @@
         <v>0.6</v>
       </c>
       <c r="F41" s="13">
-        <v>120</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="103" thickBot="1">
@@ -1627,8 +1637,8 @@
       <c r="E42" s="4">
         <v>0.01</v>
       </c>
-      <c r="F42" s="12">
-        <v>5</v>
+      <c r="F42" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="103" thickBot="1">
@@ -1647,8 +1657,8 @@
       <c r="E43" s="2">
         <v>0.1</v>
       </c>
-      <c r="F43" s="13">
-        <v>800</v>
+      <c r="F43" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="52" thickBot="1">
@@ -1667,8 +1677,8 @@
       <c r="E44" s="2">
         <v>0.25</v>
       </c>
-      <c r="F44" s="12">
-        <v>600</v>
+      <c r="F44" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="69" thickBot="1">
@@ -1687,8 +1697,8 @@
       <c r="E45" s="4">
         <v>0.1</v>
       </c>
-      <c r="F45" s="13">
-        <v>500</v>
+      <c r="F45" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="69" thickBot="1">
@@ -1707,8 +1717,8 @@
       <c r="E46" s="2">
         <v>0.2</v>
       </c>
-      <c r="F46" s="12">
-        <v>400</v>
+      <c r="F46" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="86" thickBot="1">
@@ -1727,8 +1737,8 @@
       <c r="E47" s="4">
         <v>0.25</v>
       </c>
-      <c r="F47" s="13">
-        <v>300</v>
+      <c r="F47" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="86" thickBot="1">
@@ -1747,8 +1757,8 @@
       <c r="E48" s="2">
         <v>0.25</v>
       </c>
-      <c r="F48" s="12">
-        <v>120</v>
+      <c r="F48" s="13">
+        <v>120.05</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="86" thickBot="1">
@@ -1767,8 +1777,8 @@
       <c r="E49" s="4">
         <v>0.03</v>
       </c>
-      <c r="F49" s="13">
-        <v>6</v>
+      <c r="F49" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="36" thickTop="1" thickBot="1">
@@ -1787,8 +1797,8 @@
       <c r="E50" s="1">
         <v>0.1</v>
       </c>
-      <c r="F50" s="12">
-        <v>200</v>
+      <c r="F50" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="35" thickBot="1">
@@ -1807,8 +1817,8 @@
       <c r="E51" s="2">
         <v>0.1</v>
       </c>
-      <c r="F51" s="13">
-        <v>250</v>
+      <c r="F51" s="14">
+        <v>406.66999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="86" thickBot="1">
@@ -1827,8 +1837,8 @@
       <c r="E52" s="4">
         <v>0.03</v>
       </c>
-      <c r="F52" s="12">
-        <v>300</v>
+      <c r="F52" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="103" thickBot="1">
@@ -1848,7 +1858,7 @@
         <v>0.1</v>
       </c>
       <c r="F53" s="13">
-        <v>120</v>
+        <v>120.05</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="103" thickBot="1">
@@ -1867,8 +1877,8 @@
       <c r="E54" s="4">
         <v>0.01</v>
       </c>
-      <c r="F54" s="12">
-        <v>5</v>
+      <c r="F54" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="103" thickBot="1">
@@ -1887,8 +1897,8 @@
       <c r="E55" s="2">
         <v>0.15</v>
       </c>
-      <c r="F55" s="13">
-        <v>800</v>
+      <c r="F55" s="14">
+        <v>155.94</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="52" thickBot="1">
@@ -1907,8 +1917,8 @@
       <c r="E56" s="2">
         <v>0.05</v>
       </c>
-      <c r="F56" s="12">
-        <v>600</v>
+      <c r="F56" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="69" thickBot="1">
@@ -1927,8 +1937,8 @@
       <c r="E57" s="4">
         <v>0.05</v>
       </c>
-      <c r="F57" s="13">
-        <v>500</v>
+      <c r="F57" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="69" thickBot="1">
@@ -1947,8 +1957,8 @@
       <c r="E58" s="2">
         <v>0.05</v>
       </c>
-      <c r="F58" s="12">
-        <v>400</v>
+      <c r="F58" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="86" thickBot="1">
@@ -1967,8 +1977,8 @@
       <c r="E59" s="4">
         <v>0.03</v>
       </c>
-      <c r="F59" s="13">
-        <v>300</v>
+      <c r="F59" s="14">
+        <v>474.66</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="86" thickBot="1">
@@ -1987,8 +1997,8 @@
       <c r="E60" s="2">
         <v>0.05</v>
       </c>
-      <c r="F60" s="12">
-        <v>120</v>
+      <c r="F60" s="13">
+        <v>120.05</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="86" thickBot="1">
@@ -2007,8 +2017,8 @@
       <c r="E61" s="4">
         <v>0.03</v>
       </c>
-      <c r="F61" s="13">
-        <v>6</v>
+      <c r="F61" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/8d_cost_utilisation_intervention.xlsx
+++ b/data-raw/8d_cost_utilisation_intervention.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278217AE-BD43-B64E-AAC0-4C31DED36C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657C9F74-7091-0140-9AB0-CBF0A19C2EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
+    <workbookView xWindow="-38500" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20757A-CBE6-1F41-85A5-572B7D012FB2}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -838,7 +838,7 @@
         <v>0.1</v>
       </c>
       <c r="F2" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52" thickBot="1">
@@ -858,7 +858,7 @@
         <v>0.2</v>
       </c>
       <c r="F3" s="14">
-        <v>406.66999999999996</v>
+        <v>378.83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" thickTop="1" thickBot="1">
@@ -878,7 +878,7 @@
         <v>0.03</v>
       </c>
       <c r="F4" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="86" thickBot="1">
@@ -958,7 +958,7 @@
         <v>0.05</v>
       </c>
       <c r="F8" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="69" thickBot="1">
@@ -978,7 +978,7 @@
         <v>0.05</v>
       </c>
       <c r="F9" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="69" thickBot="1">
@@ -998,7 +998,7 @@
         <v>0.05</v>
       </c>
       <c r="F10" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="86" thickBot="1">
@@ -1018,7 +1018,7 @@
         <v>0.03</v>
       </c>
       <c r="F11" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="86" thickBot="1">
@@ -1078,7 +1078,7 @@
         <v>0.1</v>
       </c>
       <c r="F14" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="35" thickBot="1">
@@ -1098,7 +1098,7 @@
         <v>0.5</v>
       </c>
       <c r="F15" s="14">
-        <v>406.66999999999996</v>
+        <v>378.83</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="35" thickBot="1">
@@ -1118,7 +1118,7 @@
         <v>0.03</v>
       </c>
       <c r="F16" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="103" thickBot="1">
@@ -1198,7 +1198,7 @@
         <v>0.15</v>
       </c>
       <c r="F20" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="69" thickBot="1">
@@ -1218,7 +1218,7 @@
         <v>0.1</v>
       </c>
       <c r="F21" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="69" thickBot="1">
@@ -1238,7 +1238,7 @@
         <v>0.15</v>
       </c>
       <c r="F22" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="86" thickBot="1">
@@ -1258,7 +1258,7 @@
         <v>0.15</v>
       </c>
       <c r="F23" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="86" thickBot="1">
@@ -1318,7 +1318,7 @@
         <v>0.1</v>
       </c>
       <c r="F26" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="35" thickBot="1">
@@ -1338,7 +1338,7 @@
         <v>0.6</v>
       </c>
       <c r="F27" s="14">
-        <v>406.66999999999996</v>
+        <v>378.83</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="35" thickBot="1">
@@ -1358,7 +1358,7 @@
         <v>0.03</v>
       </c>
       <c r="F28" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="103" thickBot="1">
@@ -1438,7 +1438,7 @@
         <v>0.2</v>
       </c>
       <c r="F32" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="69" thickBot="1">
@@ -1458,7 +1458,7 @@
         <v>0.1</v>
       </c>
       <c r="F33" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="69" thickBot="1">
@@ -1478,7 +1478,7 @@
         <v>0.2</v>
       </c>
       <c r="F34" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="86" thickBot="1">
@@ -1498,7 +1498,7 @@
         <v>0.2</v>
       </c>
       <c r="F35" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="86" thickBot="1">
@@ -1558,7 +1558,7 @@
         <v>0.1</v>
       </c>
       <c r="F38" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" thickBot="1">
@@ -1578,7 +1578,7 @@
         <v>0.6</v>
       </c>
       <c r="F39" s="14">
-        <v>406.66999999999996</v>
+        <v>378.83</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="86" thickBot="1">
@@ -1598,7 +1598,7 @@
         <v>0.03</v>
       </c>
       <c r="F40" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="103" thickBot="1">
@@ -1678,7 +1678,7 @@
         <v>0.25</v>
       </c>
       <c r="F44" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="69" thickBot="1">
@@ -1698,7 +1698,7 @@
         <v>0.1</v>
       </c>
       <c r="F45" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="69" thickBot="1">
@@ -1718,7 +1718,7 @@
         <v>0.2</v>
       </c>
       <c r="F46" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="86" thickBot="1">
@@ -1738,7 +1738,7 @@
         <v>0.25</v>
       </c>
       <c r="F47" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="86" thickBot="1">
@@ -1798,7 +1798,7 @@
         <v>0.1</v>
       </c>
       <c r="F50" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="35" thickBot="1">
@@ -1818,7 +1818,7 @@
         <v>0.1</v>
       </c>
       <c r="F51" s="14">
-        <v>406.66999999999996</v>
+        <v>378.83</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="86" thickBot="1">
@@ -1838,7 +1838,7 @@
         <v>0.03</v>
       </c>
       <c r="F52" s="14">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="103" thickBot="1">
@@ -1918,7 +1918,7 @@
         <v>0.05</v>
       </c>
       <c r="F56" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="69" thickBot="1">
@@ -1938,7 +1938,7 @@
         <v>0.05</v>
       </c>
       <c r="F57" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="69" thickBot="1">
@@ -1958,7 +1958,7 @@
         <v>0.05</v>
       </c>
       <c r="F58" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="86" thickBot="1">
@@ -1978,7 +1978,7 @@
         <v>0.03</v>
       </c>
       <c r="F59" s="14">
-        <v>474.66</v>
+        <v>502.5</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="86" thickBot="1">

--- a/data-raw/8d_cost_utilisation_intervention.xlsx
+++ b/data-raw/8d_cost_utilisation_intervention.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657C9F74-7091-0140-9AB0-CBF0A19C2EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46A6351-9606-A849-8E02-C5ABCA27D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38500" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,9 +490,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -530,7 +530,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -636,7 +636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -778,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20757A-CBE6-1F41-85A5-572B7D012FB2}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -837,8 +837,8 @@
       <c r="E2" s="1">
         <v>0.1</v>
       </c>
-      <c r="F2" s="14">
-        <v>128.1</v>
+      <c r="F2">
+        <v>858.82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52" thickBot="1">
@@ -877,7 +877,7 @@
       <c r="E4" s="4">
         <v>0.03</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4">
         <v>128.1</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
       <c r="E7" s="2">
         <v>0.02</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7">
         <v>155.94</v>
       </c>
     </row>
@@ -957,8 +957,8 @@
       <c r="E8" s="2">
         <v>0.05</v>
       </c>
-      <c r="F8" s="14">
-        <v>502.5</v>
+      <c r="F8">
+        <v>751.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="69" thickBot="1">
@@ -977,8 +977,8 @@
       <c r="E9" s="4">
         <v>0.05</v>
       </c>
-      <c r="F9" s="14">
-        <v>502.5</v>
+      <c r="F9">
+        <v>751.9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="69" thickBot="1">
@@ -997,8 +997,8 @@
       <c r="E10" s="2">
         <v>0.05</v>
       </c>
-      <c r="F10" s="14">
-        <v>502.5</v>
+      <c r="F10">
+        <v>751.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="86" thickBot="1">
@@ -1017,8 +1017,8 @@
       <c r="E11" s="4">
         <v>0.03</v>
       </c>
-      <c r="F11" s="14">
-        <v>502.5</v>
+      <c r="F11">
+        <v>1938.76</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="86" thickBot="1">
@@ -1077,8 +1077,8 @@
       <c r="E14" s="1">
         <v>0.1</v>
       </c>
-      <c r="F14" s="14">
-        <v>128.1</v>
+      <c r="F14">
+        <v>858.82</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="35" thickBot="1">
@@ -1117,7 +1117,7 @@
       <c r="E16" s="4">
         <v>0.03</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16">
         <v>128.1</v>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="E19" s="2">
         <v>0.1</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19">
         <v>155.94</v>
       </c>
     </row>
@@ -1197,8 +1197,8 @@
       <c r="E20" s="2">
         <v>0.15</v>
       </c>
-      <c r="F20" s="14">
-        <v>502.5</v>
+      <c r="F20">
+        <v>751.9</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="69" thickBot="1">
@@ -1217,8 +1217,8 @@
       <c r="E21" s="4">
         <v>0.1</v>
       </c>
-      <c r="F21" s="14">
-        <v>502.5</v>
+      <c r="F21">
+        <v>751.9</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="69" thickBot="1">
@@ -1237,8 +1237,8 @@
       <c r="E22" s="2">
         <v>0.15</v>
       </c>
-      <c r="F22" s="14">
-        <v>502.5</v>
+      <c r="F22">
+        <v>751.9</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="86" thickBot="1">
@@ -1257,8 +1257,8 @@
       <c r="E23" s="4">
         <v>0.15</v>
       </c>
-      <c r="F23" s="14">
-        <v>502.5</v>
+      <c r="F23">
+        <v>1938.76</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="86" thickBot="1">
@@ -1317,8 +1317,8 @@
       <c r="E26" s="1">
         <v>0.1</v>
       </c>
-      <c r="F26" s="14">
-        <v>128.1</v>
+      <c r="F26">
+        <v>858.82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="35" thickBot="1">
@@ -1357,7 +1357,7 @@
       <c r="E28" s="4">
         <v>0.03</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28">
         <v>128.1</v>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       <c r="E31" s="2">
         <v>0.1</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31">
         <v>155.94</v>
       </c>
     </row>
@@ -1437,8 +1437,8 @@
       <c r="E32" s="2">
         <v>0.2</v>
       </c>
-      <c r="F32" s="14">
-        <v>502.5</v>
+      <c r="F32">
+        <v>751.9</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="69" thickBot="1">
@@ -1457,8 +1457,8 @@
       <c r="E33" s="4">
         <v>0.1</v>
       </c>
-      <c r="F33" s="14">
-        <v>502.5</v>
+      <c r="F33">
+        <v>751.9</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="69" thickBot="1">
@@ -1477,8 +1477,8 @@
       <c r="E34" s="2">
         <v>0.2</v>
       </c>
-      <c r="F34" s="14">
-        <v>502.5</v>
+      <c r="F34">
+        <v>751.9</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="86" thickBot="1">
@@ -1497,8 +1497,8 @@
       <c r="E35" s="4">
         <v>0.2</v>
       </c>
-      <c r="F35" s="14">
-        <v>502.5</v>
+      <c r="F35">
+        <v>1938.76</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="86" thickBot="1">
@@ -1557,8 +1557,8 @@
       <c r="E38" s="1">
         <v>0.1</v>
       </c>
-      <c r="F38" s="14">
-        <v>128.1</v>
+      <c r="F38">
+        <v>858.82</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" thickBot="1">
@@ -1597,7 +1597,7 @@
       <c r="E40" s="4">
         <v>0.03</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40">
         <v>128.1</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="E43" s="2">
         <v>0.1</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43">
         <v>155.94</v>
       </c>
     </row>
@@ -1677,8 +1677,8 @@
       <c r="E44" s="2">
         <v>0.25</v>
       </c>
-      <c r="F44" s="14">
-        <v>502.5</v>
+      <c r="F44">
+        <v>751.9</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="69" thickBot="1">
@@ -1697,8 +1697,8 @@
       <c r="E45" s="4">
         <v>0.1</v>
       </c>
-      <c r="F45" s="14">
-        <v>502.5</v>
+      <c r="F45">
+        <v>751.9</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="69" thickBot="1">
@@ -1717,8 +1717,8 @@
       <c r="E46" s="2">
         <v>0.2</v>
       </c>
-      <c r="F46" s="14">
-        <v>502.5</v>
+      <c r="F46">
+        <v>751.9</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="86" thickBot="1">
@@ -1737,8 +1737,8 @@
       <c r="E47" s="4">
         <v>0.25</v>
       </c>
-      <c r="F47" s="14">
-        <v>502.5</v>
+      <c r="F47">
+        <v>1938.76</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="86" thickBot="1">
@@ -1797,8 +1797,8 @@
       <c r="E50" s="1">
         <v>0.1</v>
       </c>
-      <c r="F50" s="14">
-        <v>128.1</v>
+      <c r="F50">
+        <v>858.82</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="35" thickBot="1">
@@ -1837,7 +1837,7 @@
       <c r="E52" s="4">
         <v>0.03</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52">
         <v>128.1</v>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="E55" s="2">
         <v>0.15</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55">
         <v>155.94</v>
       </c>
     </row>
@@ -1917,8 +1917,8 @@
       <c r="E56" s="2">
         <v>0.05</v>
       </c>
-      <c r="F56" s="14">
-        <v>502.5</v>
+      <c r="F56">
+        <v>751.9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="69" thickBot="1">
@@ -1937,8 +1937,8 @@
       <c r="E57" s="4">
         <v>0.05</v>
       </c>
-      <c r="F57" s="14">
-        <v>502.5</v>
+      <c r="F57">
+        <v>751.9</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="69" thickBot="1">
@@ -1957,8 +1957,8 @@
       <c r="E58" s="2">
         <v>0.05</v>
       </c>
-      <c r="F58" s="14">
-        <v>502.5</v>
+      <c r="F58">
+        <v>751.9</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="86" thickBot="1">
@@ -1977,8 +1977,8 @@
       <c r="E59" s="4">
         <v>0.03</v>
       </c>
-      <c r="F59" s="14">
-        <v>502.5</v>
+      <c r="F59">
+        <v>1938.76</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="86" thickBot="1">

--- a/data-raw/8d_cost_utilisation_intervention.xlsx
+++ b/data-raw/8d_cost_utilisation_intervention.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0942171-43F1-4C45-B743-F64F41D2840E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12AF47-FC1F-7F46-873B-ACB046D5BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="1380" windowWidth="34400" windowHeight="28300" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
+    <workbookView xWindow="31500" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,36 +74,9 @@
     <t>price</t>
   </si>
   <si>
-    <t>surgery_5</t>
-  </si>
-  <si>
     <t>TCP</t>
   </si>
   <si>
-    <t>laser_1</t>
-  </si>
-  <si>
-    <t>laser_2</t>
-  </si>
-  <si>
-    <t>laser_3</t>
-  </si>
-  <si>
-    <t>laser_4</t>
-  </si>
-  <si>
-    <t>surgery_1</t>
-  </si>
-  <si>
-    <t>surgery_2</t>
-  </si>
-  <si>
-    <t>surgery_3</t>
-  </si>
-  <si>
-    <t>surgery_4</t>
-  </si>
-  <si>
     <t>laser_mild</t>
   </si>
   <si>
@@ -126,6 +99,33 @@
   </si>
   <si>
     <t>surgery_vi</t>
+  </si>
+  <si>
+    <t>laser_treatment_1</t>
+  </si>
+  <si>
+    <t>laser_treatment_2</t>
+  </si>
+  <si>
+    <t>laser_treatment_3</t>
+  </si>
+  <si>
+    <t>laser_treatment_4</t>
+  </si>
+  <si>
+    <t>surgery_treatment_1</t>
+  </si>
+  <si>
+    <t>surgery_treatment_2</t>
+  </si>
+  <si>
+    <t>surgery_treatment_3</t>
+  </si>
+  <si>
+    <t>surgery_treatment_4</t>
+  </si>
+  <si>
+    <t>surgery_treatment_5</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -599,7 +599,7 @@
     </row>
     <row r="2" spans="1:4" ht="70" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -612,8 +612,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" thickTop="1" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -626,8 +626,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" thickTop="1" thickBot="1">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
+      <c r="A4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -640,8 +640,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="121" thickTop="1" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="6" spans="1:4" ht="53" thickTop="1" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -668,8 +668,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="70" thickTop="1" thickBot="1">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
+      <c r="A7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="8" spans="1:4" ht="70" thickTop="1" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -696,8 +696,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="87" thickTop="1" thickBot="1">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
+      <c r="A9" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -709,12 +709,12 @@
         <v>474.66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" thickTop="1" thickBot="1">
+    <row r="10" spans="1:4" ht="36" thickTop="1" thickBot="1">
       <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>4.1000000000000002E-2</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="11" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>0.51</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>0.21999999999999997</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="13" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>0.18</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>0.11000000000000001</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="15" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <v>4.3999999999999997E-2</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="16" spans="1:4" ht="18" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1">
         <v>0.28599999999999998</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="17" spans="1:3" ht="18" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1">
         <v>0.45</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="18" spans="1:3" ht="18" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>0.22000000000000003</v>

--- a/data-raw/8d_cost_utilisation_intervention.xlsx
+++ b/data-raw/8d_cost_utilisation_intervention.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12AF47-FC1F-7F46-873B-ACB046D5BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDD38B-B1CE-9C4B-B4E2-59B5CBED9E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
+    <workbookView xWindow="41780" yWindow="800" windowWidth="34400" windowHeight="21100" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,34 @@
     <t>price</t>
   </si>
   <si>
-    <t>TCP</t>
+    <t>laser_treatment_1</t>
+  </si>
+  <si>
+    <t>laser_treatment_2</t>
+  </si>
+  <si>
+    <t>laser_treatment_3</t>
+  </si>
+  <si>
+    <t>laser_treatment_4</t>
+  </si>
+  <si>
+    <t>surgery_treatment_1</t>
+  </si>
+  <si>
+    <t>surgery_treatment_2</t>
+  </si>
+  <si>
+    <t>surgery_treatment_3</t>
+  </si>
+  <si>
+    <t>surgery_treatment_4</t>
+  </si>
+  <si>
+    <t>lower_bound</t>
+  </si>
+  <si>
+    <t>upper_bound</t>
   </si>
   <si>
     <t>laser_mild</t>
@@ -99,33 +126,6 @@
   </si>
   <si>
     <t>surgery_vi</t>
-  </si>
-  <si>
-    <t>laser_treatment_1</t>
-  </si>
-  <si>
-    <t>laser_treatment_2</t>
-  </si>
-  <si>
-    <t>laser_treatment_3</t>
-  </si>
-  <si>
-    <t>laser_treatment_4</t>
-  </si>
-  <si>
-    <t>surgery_treatment_1</t>
-  </si>
-  <si>
-    <t>surgery_treatment_2</t>
-  </si>
-  <si>
-    <t>surgery_treatment_3</t>
-  </si>
-  <si>
-    <t>surgery_treatment_4</t>
-  </si>
-  <si>
-    <t>surgery_treatment_5</t>
   </si>
 </sst>
 </file>
@@ -570,20 +570,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20757A-CBE6-1F41-85A5-572B7D012FB2}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="5"/>
-    <col min="3" max="3" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="8"/>
+    <col min="3" max="5" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1">
+    <row r="1" spans="1:6" ht="17" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -591,199 +591,287 @@
         <v>9</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="70" thickTop="1" thickBot="1">
+    <row r="2" spans="1:6" ht="70" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.16</v>
       </c>
-      <c r="D2" s="8">
+      <c r="F2" s="8">
         <v>155.94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="53" thickTop="1" thickBot="1">
+    <row r="3" spans="1:6" ht="53" thickTop="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="E3" s="1">
         <v>0.47500000000000003</v>
       </c>
-      <c r="D3" s="8">
+      <c r="F3" s="8">
         <v>406.66999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="87" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="87" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1">
+        <v>1.2019999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.1424</v>
+      </c>
+      <c r="E4" s="1">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="D4" s="8">
+      <c r="F4" s="8">
         <v>155.94</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="121" thickTop="1" thickBot="1">
+    <row r="5" spans="1:6" ht="121" thickTop="1" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7.7800000000000008E-2</v>
+      </c>
+      <c r="E5" s="1">
         <v>4.5000000000000005E-2</v>
       </c>
-      <c r="D5" s="8">
+      <c r="F5" s="8">
         <v>155.94</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="53" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="53" thickTop="1" thickBot="1">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E6" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="F6" s="8">
         <v>474.66</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="70" thickTop="1" thickBot="1">
+    <row r="7" spans="1:6" ht="70" thickTop="1" thickBot="1">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1">
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.8600000000000004E-2</v>
+      </c>
+      <c r="E7" s="1">
         <v>1.4300000000000002E-2</v>
       </c>
-      <c r="D7" s="8">
+      <c r="F7" s="8">
         <v>474.66</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="70" thickTop="1" thickBot="1">
+    <row r="8" spans="1:6" ht="70" thickTop="1" thickBot="1">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.06E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>2.5500000000000002E-2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="F8" s="8">
         <v>474.66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="87" thickTop="1" thickBot="1">
+    <row r="9" spans="1:6" ht="87" thickTop="1" thickBot="1">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1">
+        <v>7.8E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.26599999999999996</v>
+      </c>
+      <c r="E9" s="1">
         <v>0.16799999999999998</v>
       </c>
-      <c r="D9" s="8">
+      <c r="F9" s="8">
         <v>474.66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="36" thickTop="1" thickBot="1">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="18" thickTop="1" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" thickTop="1" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" thickTop="1" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" thickTop="1" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.11000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" thickTop="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" thickTop="1" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" thickTop="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="D10" s="8">
-        <v>474.66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.21999999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.11000000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickTop="1" thickBot="1">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.28599999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" thickTop="1" thickBot="1">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="C17" s="5">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="E17" s="5">
         <v>0.22000000000000003</v>
       </c>
     </row>

--- a/data-raw/8d_cost_utilisation_intervention.xlsx
+++ b/data-raw/8d_cost_utilisation_intervention.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDD38B-B1CE-9C4B-B4E2-59B5CBED9E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45B5BC6-C3BF-A44D-9FDD-6486D69AEA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41780" yWindow="800" windowWidth="34400" windowHeight="21100" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
+    <workbookView xWindow="41900" yWindow="500" windowWidth="34400" windowHeight="21100" xr2:uid="{C3F4995C-3B70-6C49-A03D-B152E04542DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E20757A-CBE6-1F41-85A5-572B7D012FB2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -620,7 +620,7 @@
         <v>0.16</v>
       </c>
       <c r="F2" s="8">
-        <v>155.94</v>
+        <v>858.82</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="53" thickTop="1" thickBot="1">
@@ -640,7 +640,7 @@
         <v>0.47500000000000003</v>
       </c>
       <c r="F3" s="8">
-        <v>406.66999999999996</v>
+        <v>378.83</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="87" thickTop="1" thickBot="1">
@@ -660,7 +660,7 @@
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="F4" s="8">
-        <v>155.94</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="121" thickTop="1" thickBot="1">
@@ -700,7 +700,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="F6" s="8">
-        <v>474.66</v>
+        <v>751.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="70" thickTop="1" thickBot="1">
@@ -720,7 +720,7 @@
         <v>1.4300000000000002E-2</v>
       </c>
       <c r="F7" s="8">
-        <v>474.66</v>
+        <v>751.9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="70" thickTop="1" thickBot="1">
@@ -740,7 +740,7 @@
         <v>2.5500000000000002E-2</v>
       </c>
       <c r="F8" s="8">
-        <v>474.66</v>
+        <v>751.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="87" thickTop="1" thickBot="1">
@@ -760,7 +760,7 @@
         <v>0.16799999999999998</v>
       </c>
       <c r="F9" s="8">
-        <v>474.66</v>
+        <v>1938.76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" thickTop="1" thickBot="1">
